--- a/Groceryapplication/src/test/resources/Testdata.xlsx
+++ b/Groceryapplication/src/test/resources/Testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaravind\eclipse-workspace\Groceryapplication\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaravind\git\grocery-application-demo-project\Groceryapplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B80FD3-8F3F-4A71-9DF9-7031A8E09197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545EA7BB-8186-4A16-805E-BC9E4D3749ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{EF72D37C-B060-4CE0-8239-3105204F3CD8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{EF72D37C-B060-4CE0-8239-3105204F3CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Sweetfruit</t>
+    <t>Newfruitlist</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377EF992-094A-4E5B-8B72-B5063314139C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF70881-7038-4744-B63E-EC08BCA7E6FE}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Groceryapplication/src/test/resources/Testdata.xlsx
+++ b/Groceryapplication/src/test/resources/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaravind\git\grocery-application-demo-project\Groceryapplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545EA7BB-8186-4A16-805E-BC9E4D3749ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20352DC9-2C29-4202-9713-2D58904ED7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{EF72D37C-B060-4CE0-8239-3105204F3CD8}"/>
+    <workbookView xWindow="2880" yWindow="2880" windowWidth="14400" windowHeight="8170" firstSheet="1" activeTab="4" xr2:uid="{EF72D37C-B060-4CE0-8239-3105204F3CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Newfruitlist</t>
+    <t>Applefruit</t>
   </si>
 </sst>
 </file>

--- a/Groceryapplication/src/test/resources/Testdata.xlsx
+++ b/Groceryapplication/src/test/resources/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaravind\git\grocery-application-demo-project\Groceryapplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20352DC9-2C29-4202-9713-2D58904ED7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4E1CF3-C75D-4612-8213-04DF6583EEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2880" windowWidth="14400" windowHeight="8170" firstSheet="1" activeTab="4" xr2:uid="{EF72D37C-B060-4CE0-8239-3105204F3CD8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{EF72D37C-B060-4CE0-8239-3105204F3CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Applefruit</t>
+    <t>Winterfruit</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
